--- a/biology/Histoire de la zoologie et de la botanique/François_Stockmans/François_Stockmans.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Stockmans/François_Stockmans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Stockmans</t>
+          <t>François_Stockmans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Stockmans (né à Ixelles, le 13 septembre 1904 et mort à Uccle, le 7 avril 1986) est un paléobotaniste et biographe belge, professeur à l'Université libre de Bruxelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Stockmans</t>
+          <t>François_Stockmans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>François Stockmans, Les Neuroptéridées des Bassins Houillers Belges (Première Partie), Bruxelles, Musée royal d'histoire naturelle de Belgique, 1933, 61 p.
 Armand Renier, François Stockmans, Félix Demanet et Victor Van Straelen, Flore et faune houillères de la Belgique : Introduction à l'étude paléontologique du terrain houiller, Bruxelles, Musée Royal d'Histoire Naturelle de Belgique, 1938, 317 p.
